--- a/templates/Module_8_10_Template.xlsx
+++ b/templates/Module_8_10_Template.xlsx
@@ -10574,7 +10574,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3naYCPep6JxroVouyiGdReqOM8R0ksUGNsONIcW/0LQhKnWKaBb/pdwwPqnD7aYTH0chgd2PR9akU8A/wLCKHQ==" saltValue="xhXtBKZwFhNSgVgaBBpjQw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R16 D8:P10 D13:D14 E14:P14 G11:P13 H15:P15 D17:G17 D21:G21 E13:F13" name="Range1"/>
   </protectedRanges>
@@ -10909,7 +10908,6 @@
       <c r="O19" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2VtPZJXzrC7WlXUnmzbAiUi1eMToYWQSqstsTW6qooJE89wK8CC6iIz0qazj2qWJ1loAGqUpUE5iNuGF6T1zmg==" saltValue="UK7MIngm9QbgPlkQgh4TLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D19" name="Range1_1"/>
     <protectedRange sqref="D9:D11 D14" name="Range1"/>
@@ -11312,7 +11310,6 @@
       <c r="O19" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE96" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D19" name="Range1_1"/>
     <protectedRange sqref="D9:D11 D14" name="Range1"/>
